--- a/preguntas_relacionadas/p_formula_blanco_vprel.xlsx
+++ b/preguntas_relacionadas/p_formula_blanco_vprel.xlsx
@@ -1,80 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365inegi-my.sharepoint.com/personal/aaron_ramirez_inegi_org_mx/Documents/Documents/codigos_python/Prueba2_p_rel/P_rel_git/preguntas_relacionadas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_37D3C59D040817BF74ED073A6896CBC8E3524565" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B3A0C2-BB55-40C9-BC15-AA2A8F5B431D}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>Comparador azul debe ser mayor o igual que referente azul</t>
-  </si>
-  <si>
-    <t>Comparador verde debe ser igual a suma de referentes verdes</t>
-  </si>
-  <si>
-    <t>Comparador amarillo debe ser menor o igual que referente amarillo</t>
-  </si>
-  <si>
-    <t>Referentes</t>
-  </si>
-  <si>
-    <t>continua en hoja 2</t>
-  </si>
-  <si>
-    <t>Comparadores</t>
-  </si>
-  <si>
-    <t>cada fila debe se rigual que columna de mismo color en hoja1</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="8">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,7 +41,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,6 +55,18 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD35400"/>
+        <bgColor rgb="FFD35400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D35400"/>
+        <bgColor rgb="00D35400"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,27 +82,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,100 +462,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="V2:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="V2" t="s">
+    <row r="2">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Comparador azul debe ser mayor o igual que referente azul</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Comparador verde debe ser igual a suma de referentes verdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Comparador amarillo debe ser menor o igual que referente amarillo</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Referentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>continua en hoja 2</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="Z6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="Z7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="Z8" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="Z9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="AF10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="V3" t="s">
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="V4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="V5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="Z6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="Z7" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="Z8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="Z9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="AF10">
-        <f>IF(AND(AA12&gt;=AA7,OR(AND(ISNUMBER(AA7),ISNUMBER(AA12)),AND(ISBLANK(AA7),ISBLANK(AA12)),OR(AND(ISBLANK(AA7),AA12=""),AND(ISBLANK(AA12),AA7="")))),0,IF(OR(AND(AA12="NS",AA7&gt;0,ISNUMBER(AA7)),AND(AA12="NS",AA7="NS"),OR(AND(AA7="NA",AA12="NA"),AND(AA7="NA",ISBLANK(AA12)))),0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <f>IF(AND(AB12=IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7)))),OR(AND(ISNUMBER(IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))),ISNUMBER(AB12)),AND(ISBLANK(IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))),ISBLANK(AB12)),OR(AND(ISBLANK(IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))),AB12=""),AND(ISBLANK(AB12),IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))="")))),0,IF(OR(AND(AB12="NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))&gt;0,ISNUMBER(IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7)))))),AND(AB12="NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))="NS"),OR(AND(IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))="NA",AB12="NA"),AND(IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NS")&gt;0),"NS",IF(AND(SUM(AB5:AB7)=0,COUNTIF(AB5:AB7,"NA")&gt;0),"NA",IF(AND(ISBLANK(AB5),ISBLANK(AB6),ISBLANK(AB7)),"",SUM(AB5:AB7))))="NA",ISBLANK(AB12)))),0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <f>IF(AND(AC12&lt;=AC7,OR(AND(ISNUMBER(AC7),ISNUMBER(AC12)),AND(ISBLANK(AC7),ISBLANK(AC12)),OR(AND(ISBLANK(AC7),AC12=""),AND(ISBLANK(AC12),AC7="")))),0,IF(OR(AND(AC12="NS",AC7&gt;0,ISNUMBER(AC7)),AND(AC12="NS",AC7="NS"),OR(AND(AC7="NA",AC12="NA"),AND(AC7="NA",ISBLANK(AC12)))),0,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="AA11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="22:34" x14ac:dyDescent="0.25">
-      <c r="AA12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>7</v>
+    <row r="11">
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Comparadores</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="AA12" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -538,67 +581,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="Z14:AF21"/>
   <sheetViews>
-    <sheetView topLeftCell="T4" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" topLeftCell="T7" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="14" spans="26:32" x14ac:dyDescent="0.25">
-      <c r="AF14">
-        <f>IF(AND(AC17=Hoja1!Z5,OR(AND(ISNUMBER(Hoja1!Z5),ISNUMBER(AC17)),AND(ISBLANK(Hoja1!Z5),ISBLANK(AC17)),OR(AND(ISBLANK(Hoja1!Z5),AC17=""),AND(ISBLANK(AC17),Hoja1!Z5="")))),0,IF(OR(AND(AC17="NS",Hoja1!Z5&gt;0,ISNUMBER(Hoja1!Z5)),AND(AC17="NS",Hoja1!Z5="NS"),OR(AND(Hoja1!Z5="NA",AC17="NA"),AND(Hoja1!Z5="NA",ISBLANK(AC17)))),0,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="26:32" x14ac:dyDescent="0.25">
-      <c r="Z15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="5">
-        <f>IF(AND(AC18=Hoja1!Z6,OR(AND(ISNUMBER(Hoja1!Z6),ISNUMBER(AC18)),AND(ISBLANK(Hoja1!Z6),ISBLANK(AC18)),OR(AND(ISBLANK(Hoja1!Z6),AC18=""),AND(ISBLANK(AC18),Hoja1!Z6="")))),0,IF(OR(AND(AC18="NS",Hoja1!Z6&gt;0,ISNUMBER(Hoja1!Z6)),AND(AC18="NS",Hoja1!Z6="NS"),OR(AND(Hoja1!Z6="NA",AC18="NA"),AND(Hoja1!Z6="NA",ISBLANK(AC18)))),0,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="26:32" x14ac:dyDescent="0.25">
-      <c r="AF16" s="5">
-        <f>IF(AND(AC19=Hoja1!Z7,OR(AND(ISNUMBER(Hoja1!Z7),ISNUMBER(AC19)),AND(ISBLANK(Hoja1!Z7),ISBLANK(AC19)),OR(AND(ISBLANK(Hoja1!Z7),AC19=""),AND(ISBLANK(AC19),Hoja1!Z7="")))),0,IF(OR(AND(AC19="NS",Hoja1!Z7&gt;0,ISNUMBER(Hoja1!Z7)),AND(AC19="NS",Hoja1!Z7="NS"),OR(AND(Hoja1!Z7="NA",AC19="NA"),AND(Hoja1!Z7="NA",ISBLANK(AC19)))),0,1))</f>
+    <row r="14">
+      <c r="AF14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="5">
-        <f>IF(AND(AC20=Hoja1!Z8,OR(AND(ISNUMBER(Hoja1!Z8),ISNUMBER(AC20)),AND(ISBLANK(Hoja1!Z8),ISBLANK(AC20)),OR(AND(ISBLANK(Hoja1!Z8),AC20=""),AND(ISBLANK(AC20),Hoja1!Z8="")))),0,IF(OR(AND(AC20="NS",Hoja1!Z8&gt;0,ISNUMBER(Hoja1!Z8)),AND(AC20="NS",Hoja1!Z8="NS"),OR(AND(Hoja1!Z8="NA",AC20="NA"),AND(Hoja1!Z8="NA",ISBLANK(AC20)))),0,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC18" s="4">
+    <row r="15">
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>cada fila debe se rigual que columna de mismo color en hoja1</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AC17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="AC18" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="AC19" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="AC20" s="4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AC21" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="AF18" s="5">
-        <f>IF(AND(AC21=Hoja1!Z9,OR(AND(ISNUMBER(Hoja1!Z9),ISNUMBER(AC21)),AND(ISBLANK(Hoja1!Z9),ISBLANK(AC21)),OR(AND(ISBLANK(Hoja1!Z9),AC21=""),AND(ISBLANK(AC21),Hoja1!Z9="")))),0,IF(OR(AND(AC21="NS",Hoja1!Z9&gt;0,ISNUMBER(Hoja1!Z9)),AND(AC21="NS",Hoja1!Z9="NS"),OR(AND(Hoja1!Z9="NA",AC21="NA"),AND(Hoja1!Z9="NA",ISBLANK(AC21)))),0,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC19" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC21" s="4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
